--- a/wy_dh/data/合同台账2019-12-02.xlsx
+++ b/wy_dh/data/合同台账2019-12-02.xlsx
@@ -10007,8 +10007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AZ10" sqref="AZ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10769,7 +10769,7 @@
         <v>57</v>
       </c>
       <c r="AS5" t="s">
-        <v>280</v>
+        <v>39</v>
       </c>
       <c r="AT5" t="s">
         <v>40</v>
